--- a/JupyterNotebooks/AveragedIntensites/BetaFiberA-HW25.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/BetaFiberA-HW25.xlsx
@@ -7,14 +7,14 @@
     <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
-    <sheet name="BetaFiberA-HW25.xpc" sheetId="1" r:id="rId1"/>
+    <sheet name="BetaFiberA" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>HKL</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P15"/>
+  <dimension ref="A1:P16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1066,7 +1066,7 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9957355901491007</v>
+        <v>0.9957355901491003</v>
       </c>
       <c r="D13">
         <v>0.9952156514271171</v>
@@ -1078,7 +1078,7 @@
         <v>0.99433068087341</v>
       </c>
       <c r="G13">
-        <v>0.9957355901491007</v>
+        <v>0.9957355901491003</v>
       </c>
       <c r="H13">
         <v>0.9952156514271171</v>
@@ -1096,13 +1096,13 @@
         <v>0.9940437047245891</v>
       </c>
       <c r="M13">
-        <v>0.9957355901491007</v>
+        <v>0.9957355901491003</v>
       </c>
       <c r="N13">
         <v>0.99459576240044</v>
       </c>
       <c r="O13">
-        <v>0.9948144489558477</v>
+        <v>0.9948144489558475</v>
       </c>
       <c r="P13">
         <v>0.9947381631617049</v>
@@ -1190,7 +1190,7 @@
         <v>1.001521988582722</v>
       </c>
       <c r="K15">
-        <v>0.9850765749113385</v>
+        <v>0.9850765749113386</v>
       </c>
       <c r="L15">
         <v>1.02059117131051</v>
@@ -1206,6 +1206,56 @@
       </c>
       <c r="P15">
         <v>0.997276836115725</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16">
+      <c r="A16" s="1">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>13</v>
+      </c>
+      <c r="C16">
+        <v>1.062027823678512</v>
+      </c>
+      <c r="D16">
+        <v>0.9128888380768491</v>
+      </c>
+      <c r="E16">
+        <v>1.011713906380467</v>
+      </c>
+      <c r="F16">
+        <v>0.973209509643741</v>
+      </c>
+      <c r="G16">
+        <v>1.062027823678512</v>
+      </c>
+      <c r="H16">
+        <v>0.9128888380768491</v>
+      </c>
+      <c r="I16">
+        <v>1.02520033075858</v>
+      </c>
+      <c r="J16">
+        <v>0.9715609114691947</v>
+      </c>
+      <c r="K16">
+        <v>1.015461794302678</v>
+      </c>
+      <c r="L16">
+        <v>0.9421122018797425</v>
+      </c>
+      <c r="M16">
+        <v>1.062027823678512</v>
+      </c>
+      <c r="N16">
+        <v>0.9623013722286582</v>
+      </c>
+      <c r="O16">
+        <v>0.9899600194448923</v>
+      </c>
+      <c r="P16">
+        <v>0.9892719145237204</v>
       </c>
     </row>
   </sheetData>

--- a/JupyterNotebooks/AveragedIntensites/BetaFiberA-HW25.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/BetaFiberA-HW25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>HKL</t>
   </si>
@@ -56,6 +56,9 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
+  </si>
+  <si>
+    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
@@ -516,46 +519,46 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="D2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="G2" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="H2" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="J2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="K2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="L2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="M2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="N2" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="O2" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="P2" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -1213,7 +1216,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="C16">
         <v>1.062027823678512</v>

--- a/JupyterNotebooks/AveragedIntensites/BetaFiberA-HW25.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/BetaFiberA-HW25.xlsx
@@ -1069,7 +1069,7 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9957355901491003</v>
+        <v>0.9957355901491007</v>
       </c>
       <c r="D13">
         <v>0.9952156514271171</v>
@@ -1081,7 +1081,7 @@
         <v>0.99433068087341</v>
       </c>
       <c r="G13">
-        <v>0.9957355901491003</v>
+        <v>0.9957355901491007</v>
       </c>
       <c r="H13">
         <v>0.9952156514271171</v>
@@ -1099,13 +1099,13 @@
         <v>0.9940437047245891</v>
       </c>
       <c r="M13">
-        <v>0.9957355901491003</v>
+        <v>0.9957355901491007</v>
       </c>
       <c r="N13">
         <v>0.99459576240044</v>
       </c>
       <c r="O13">
-        <v>0.9948144489558475</v>
+        <v>0.9948144489558477</v>
       </c>
       <c r="P13">
         <v>0.9947381631617049</v>
@@ -1193,7 +1193,7 @@
         <v>1.001521988582722</v>
       </c>
       <c r="K15">
-        <v>0.9850765749113386</v>
+        <v>0.9850765749113385</v>
       </c>
       <c r="L15">
         <v>1.02059117131051</v>

--- a/JupyterNotebooks/AveragedIntensites/BetaFiberA-HW25.xlsx
+++ b/JupyterNotebooks/AveragedIntensites/BetaFiberA-HW25.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="32">
   <si>
     <t>HKL</t>
   </si>
@@ -40,6 +40,18 @@
     <t>Ring Perpendicular to TD</t>
   </si>
   <si>
+    <t>Gaussian-Quadrature</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-15rot-5space</t>
+  </si>
+  <si>
+    <t>Spiral-90deg-10rot-3space</t>
+  </si>
+  <si>
     <t>NoRotation-tilt60deg</t>
   </si>
   <si>
@@ -56,9 +68,6 @@
   </si>
   <si>
     <t>HexGrid-60degTilt5degRes</t>
-  </si>
-  <si>
-    <t>Gaussian-Quadrature</t>
   </si>
   <si>
     <t>[1, 1, 1]</t>
@@ -458,7 +467,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:P16"/>
+  <dimension ref="A1:P19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -519,46 +528,46 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D2" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="E2" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="H2" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="I2" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="K2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="L2" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="M2" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="N2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="O2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="P2" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
     </row>
     <row r="3" spans="1:16">
@@ -919,46 +928,46 @@
         <v>8</v>
       </c>
       <c r="C10">
-        <v>1.091792</v>
+        <v>1.062027823678512</v>
       </c>
       <c r="D10">
-        <v>0.7028400000000002</v>
+        <v>0.9128888380768491</v>
       </c>
       <c r="E10">
-        <v>1.12456</v>
+        <v>1.011713906380467</v>
       </c>
       <c r="F10">
-        <v>0.9287280000000007</v>
+        <v>0.973209509643741</v>
       </c>
       <c r="G10">
-        <v>1.091792</v>
+        <v>1.062027823678512</v>
       </c>
       <c r="H10">
-        <v>0.7028400000000002</v>
+        <v>0.9128888380768491</v>
       </c>
       <c r="I10">
-        <v>1.110235999999999</v>
+        <v>1.02520033075858</v>
       </c>
       <c r="J10">
-        <v>0.9703760000000009</v>
+        <v>0.9715609114691947</v>
       </c>
       <c r="K10">
-        <v>1.030872</v>
+        <v>1.015461794302678</v>
       </c>
       <c r="L10">
-        <v>0.8293239999999987</v>
+        <v>0.9421122018797425</v>
       </c>
       <c r="M10">
-        <v>1.091792</v>
+        <v>1.062027823678512</v>
       </c>
       <c r="N10">
-        <v>0.9137</v>
+        <v>0.9623013722286582</v>
       </c>
       <c r="O10">
-        <v>0.9619800000000003</v>
+        <v>0.9899600194448923</v>
       </c>
       <c r="P10">
-        <v>0.9735909999999999</v>
+        <v>0.9892719145237204</v>
       </c>
     </row>
     <row r="11" spans="1:16">
@@ -969,46 +978,46 @@
         <v>9</v>
       </c>
       <c r="C11">
-        <v>1.19</v>
+        <v>1.09695916213683</v>
       </c>
       <c r="D11">
-        <v>0.5938874999999992</v>
+        <v>0.7346782211789478</v>
       </c>
       <c r="E11">
-        <v>1.1429</v>
+        <v>1.095732902333796</v>
       </c>
       <c r="F11">
-        <v>0.9001375000000004</v>
+        <v>0.9391767371769819</v>
       </c>
       <c r="G11">
-        <v>1.19</v>
+        <v>1.09695916213683</v>
       </c>
       <c r="H11">
-        <v>0.5938874999999992</v>
+        <v>0.7346782211789478</v>
       </c>
       <c r="I11">
-        <v>1.1498625</v>
+        <v>1.093729661961102</v>
       </c>
       <c r="J11">
-        <v>0.9404125000000011</v>
+        <v>0.9652918600112852</v>
       </c>
       <c r="K11">
-        <v>1.06</v>
+        <v>1.037020167675668</v>
       </c>
       <c r="L11">
-        <v>0.7669499999999979</v>
+        <v>0.8331508368726794</v>
       </c>
       <c r="M11">
-        <v>1.19</v>
+        <v>1.09695916213683</v>
       </c>
       <c r="N11">
-        <v>0.8683937499999999</v>
+        <v>0.9152055617563717</v>
       </c>
       <c r="O11">
-        <v>0.95673125</v>
+        <v>0.9666367557066388</v>
       </c>
       <c r="P11">
-        <v>0.9680187499999998</v>
+        <v>0.9744674436684112</v>
       </c>
     </row>
     <row r="12" spans="1:16">
@@ -1019,46 +1028,46 @@
         <v>10</v>
       </c>
       <c r="C12">
-        <v>1.107444088627201</v>
+        <v>1.095977781186974</v>
       </c>
       <c r="D12">
-        <v>0.7616592555007974</v>
+        <v>0.7355753367455574</v>
       </c>
       <c r="E12">
-        <v>1.081211706367999</v>
+        <v>1.095673931004821</v>
       </c>
       <c r="F12">
-        <v>0.9405237421056009</v>
+        <v>0.9394310824563679</v>
       </c>
       <c r="G12">
-        <v>1.107444088627201</v>
+        <v>1.095977781186974</v>
       </c>
       <c r="H12">
-        <v>0.7616592555007974</v>
+        <v>0.7355753367455574</v>
       </c>
       <c r="I12">
-        <v>1.084098025881594</v>
+        <v>1.093417659793885</v>
       </c>
       <c r="J12">
-        <v>0.9629167022079989</v>
+        <v>0.9656114765045972</v>
       </c>
       <c r="K12">
-        <v>1.033167835545602</v>
+        <v>1.036710072439837</v>
       </c>
       <c r="L12">
-        <v>0.862143426560003</v>
+        <v>0.8337152733298722</v>
       </c>
       <c r="M12">
-        <v>1.107444088627201</v>
+        <v>1.095977781186974</v>
       </c>
       <c r="N12">
-        <v>0.9214354809343983</v>
+        <v>0.915624633875189</v>
       </c>
       <c r="O12">
-        <v>0.9727096981503996</v>
+        <v>0.9666645328484298</v>
       </c>
       <c r="P12">
-        <v>0.9791455978495995</v>
+        <v>0.9745140766827388</v>
       </c>
     </row>
     <row r="13" spans="1:16">
@@ -1069,46 +1078,46 @@
         <v>11</v>
       </c>
       <c r="C13">
-        <v>0.9957355901491007</v>
+        <v>1.096637278120903</v>
       </c>
       <c r="D13">
-        <v>0.9952156514271171</v>
+        <v>0.7348710733631284</v>
       </c>
       <c r="E13">
-        <v>0.9939758733737629</v>
+        <v>1.095778516749449</v>
       </c>
       <c r="F13">
-        <v>0.99433068087341</v>
+        <v>0.9392460308923725</v>
       </c>
       <c r="G13">
-        <v>0.9957355901491007</v>
+        <v>1.096637278120903</v>
       </c>
       <c r="H13">
-        <v>0.9952156514271171</v>
+        <v>0.7348710733631284</v>
       </c>
       <c r="I13">
-        <v>0.9946768177693883</v>
+        <v>1.09366202541326</v>
       </c>
       <c r="J13">
-        <v>0.9950103141158652</v>
+        <v>0.96539611264227</v>
       </c>
       <c r="K13">
-        <v>0.9949166728604062</v>
+        <v>1.036921398551233</v>
       </c>
       <c r="L13">
-        <v>0.9940437047245891</v>
+        <v>0.8332384100759832</v>
       </c>
       <c r="M13">
-        <v>0.9957355901491007</v>
+        <v>1.096637278120903</v>
       </c>
       <c r="N13">
-        <v>0.99459576240044</v>
+        <v>0.9153247950562888</v>
       </c>
       <c r="O13">
-        <v>0.9948144489558477</v>
+        <v>0.9666332247814632</v>
       </c>
       <c r="P13">
-        <v>0.9947381631617049</v>
+        <v>0.9744688557260748</v>
       </c>
     </row>
     <row r="14" spans="1:16">
@@ -1119,46 +1128,46 @@
         <v>12</v>
       </c>
       <c r="C14">
-        <v>0.985874818482419</v>
+        <v>1.091792</v>
       </c>
       <c r="D14">
-        <v>1.003844931118116</v>
+        <v>0.7028400000000002</v>
       </c>
       <c r="E14">
-        <v>0.9937560947971724</v>
+        <v>1.12456</v>
       </c>
       <c r="F14">
-        <v>0.9964912232175934</v>
+        <v>0.9287280000000007</v>
       </c>
       <c r="G14">
-        <v>0.985874818482419</v>
+        <v>1.091792</v>
       </c>
       <c r="H14">
-        <v>1.003844931118116</v>
+        <v>0.7028400000000002</v>
       </c>
       <c r="I14">
-        <v>0.9904878731008373</v>
+        <v>1.110235999999999</v>
       </c>
       <c r="J14">
-        <v>0.9994435596121467</v>
+        <v>0.9703760000000009</v>
       </c>
       <c r="K14">
-        <v>0.9912187974997638</v>
+        <v>1.030872</v>
       </c>
       <c r="L14">
-        <v>1.00063731221872</v>
+        <v>0.8293239999999987</v>
       </c>
       <c r="M14">
-        <v>0.985874818482419</v>
+        <v>1.091792</v>
       </c>
       <c r="N14">
-        <v>0.9988005129576442</v>
+        <v>0.9137</v>
       </c>
       <c r="O14">
-        <v>0.9949917669038253</v>
+        <v>0.9619800000000003</v>
       </c>
       <c r="P14">
-        <v>0.995219326255846</v>
+        <v>0.9735909999999999</v>
       </c>
     </row>
     <row r="15" spans="1:16">
@@ -1169,46 +1178,46 @@
         <v>13</v>
       </c>
       <c r="C15">
-        <v>0.9692563726799577</v>
+        <v>1.19</v>
       </c>
       <c r="D15">
-        <v>1.033678563412949</v>
+        <v>0.5938874999999992</v>
       </c>
       <c r="E15">
-        <v>0.9856319274406091</v>
+        <v>1.1429</v>
       </c>
       <c r="F15">
-        <v>1.00286615621421</v>
+        <v>0.9001375000000004</v>
       </c>
       <c r="G15">
-        <v>0.9692563726799577</v>
+        <v>1.19</v>
       </c>
       <c r="H15">
-        <v>1.033678563412949</v>
+        <v>0.5938874999999992</v>
       </c>
       <c r="I15">
-        <v>0.9795919343735037</v>
+        <v>1.1498625</v>
       </c>
       <c r="J15">
-        <v>1.001521988582722</v>
+        <v>0.9404125000000011</v>
       </c>
       <c r="K15">
-        <v>0.9850765749113385</v>
+        <v>1.06</v>
       </c>
       <c r="L15">
-        <v>1.02059117131051</v>
+        <v>0.7669499999999979</v>
       </c>
       <c r="M15">
-        <v>0.9692563726799577</v>
+        <v>1.19</v>
       </c>
       <c r="N15">
-        <v>1.009655245426779</v>
+        <v>0.8683937499999999</v>
       </c>
       <c r="O15">
-        <v>0.9978582549369315</v>
+        <v>0.95673125</v>
       </c>
       <c r="P15">
-        <v>0.997276836115725</v>
+        <v>0.9680187499999998</v>
       </c>
     </row>
     <row r="16" spans="1:16">
@@ -1219,46 +1228,196 @@
         <v>14</v>
       </c>
       <c r="C16">
-        <v>1.062027823678512</v>
+        <v>1.107444088627201</v>
       </c>
       <c r="D16">
-        <v>0.9128888380768491</v>
+        <v>0.7616592555007974</v>
       </c>
       <c r="E16">
-        <v>1.011713906380467</v>
+        <v>1.081211706367999</v>
       </c>
       <c r="F16">
-        <v>0.973209509643741</v>
+        <v>0.9405237421056009</v>
       </c>
       <c r="G16">
-        <v>1.062027823678512</v>
+        <v>1.107444088627201</v>
       </c>
       <c r="H16">
-        <v>0.9128888380768491</v>
+        <v>0.7616592555007974</v>
       </c>
       <c r="I16">
-        <v>1.02520033075858</v>
+        <v>1.084098025881594</v>
       </c>
       <c r="J16">
-        <v>0.9715609114691947</v>
+        <v>0.9629167022079989</v>
       </c>
       <c r="K16">
-        <v>1.015461794302678</v>
+        <v>1.033167835545602</v>
       </c>
       <c r="L16">
-        <v>0.9421122018797425</v>
+        <v>0.862143426560003</v>
       </c>
       <c r="M16">
-        <v>1.062027823678512</v>
+        <v>1.107444088627201</v>
       </c>
       <c r="N16">
-        <v>0.9623013722286582</v>
+        <v>0.9214354809343983</v>
       </c>
       <c r="O16">
-        <v>0.9899600194448923</v>
+        <v>0.9727096981503996</v>
       </c>
       <c r="P16">
-        <v>0.9892719145237204</v>
+        <v>0.9791455978495995</v>
+      </c>
+    </row>
+    <row r="17" spans="1:16">
+      <c r="A17" s="1">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>0.9957355901491003</v>
+      </c>
+      <c r="D17">
+        <v>0.9952156514271171</v>
+      </c>
+      <c r="E17">
+        <v>0.9939758733737629</v>
+      </c>
+      <c r="F17">
+        <v>0.99433068087341</v>
+      </c>
+      <c r="G17">
+        <v>0.9957355901491003</v>
+      </c>
+      <c r="H17">
+        <v>0.9952156514271171</v>
+      </c>
+      <c r="I17">
+        <v>0.9946768177693883</v>
+      </c>
+      <c r="J17">
+        <v>0.9950103141158652</v>
+      </c>
+      <c r="K17">
+        <v>0.9949166728604062</v>
+      </c>
+      <c r="L17">
+        <v>0.9940437047245891</v>
+      </c>
+      <c r="M17">
+        <v>0.9957355901491003</v>
+      </c>
+      <c r="N17">
+        <v>0.99459576240044</v>
+      </c>
+      <c r="O17">
+        <v>0.9948144489558475</v>
+      </c>
+      <c r="P17">
+        <v>0.9947381631617049</v>
+      </c>
+    </row>
+    <row r="18" spans="1:16">
+      <c r="A18" s="1">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>0.985874818482419</v>
+      </c>
+      <c r="D18">
+        <v>1.003844931118116</v>
+      </c>
+      <c r="E18">
+        <v>0.9937560947971724</v>
+      </c>
+      <c r="F18">
+        <v>0.9964912232175934</v>
+      </c>
+      <c r="G18">
+        <v>0.985874818482419</v>
+      </c>
+      <c r="H18">
+        <v>1.003844931118116</v>
+      </c>
+      <c r="I18">
+        <v>0.9904878731008373</v>
+      </c>
+      <c r="J18">
+        <v>0.9994435596121467</v>
+      </c>
+      <c r="K18">
+        <v>0.9912187974997638</v>
+      </c>
+      <c r="L18">
+        <v>1.00063731221872</v>
+      </c>
+      <c r="M18">
+        <v>0.985874818482419</v>
+      </c>
+      <c r="N18">
+        <v>0.9988005129576442</v>
+      </c>
+      <c r="O18">
+        <v>0.9949917669038253</v>
+      </c>
+      <c r="P18">
+        <v>0.995219326255846</v>
+      </c>
+    </row>
+    <row r="19" spans="1:16">
+      <c r="A19" s="1">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>0.9692563726799577</v>
+      </c>
+      <c r="D19">
+        <v>1.033678563412949</v>
+      </c>
+      <c r="E19">
+        <v>0.9856319274406091</v>
+      </c>
+      <c r="F19">
+        <v>1.00286615621421</v>
+      </c>
+      <c r="G19">
+        <v>0.9692563726799577</v>
+      </c>
+      <c r="H19">
+        <v>1.033678563412949</v>
+      </c>
+      <c r="I19">
+        <v>0.9795919343735037</v>
+      </c>
+      <c r="J19">
+        <v>1.001521988582722</v>
+      </c>
+      <c r="K19">
+        <v>0.9850765749113386</v>
+      </c>
+      <c r="L19">
+        <v>1.02059117131051</v>
+      </c>
+      <c r="M19">
+        <v>0.9692563726799577</v>
+      </c>
+      <c r="N19">
+        <v>1.009655245426779</v>
+      </c>
+      <c r="O19">
+        <v>0.9978582549369315</v>
+      </c>
+      <c r="P19">
+        <v>0.997276836115725</v>
       </c>
     </row>
   </sheetData>
